--- a/biology/Zoologie/Deuterodon/Deuterodon.xlsx
+++ b/biology/Zoologie/Deuterodon/Deuterodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deuterodon est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Deuterodon se rencontrent en Amérique du Sud.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 février 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 février 2024) :
 Deuterodon aphos (Zanata &amp; Akama, 2004)
 Deuterodon burgerai (Zanata &amp; Camelier, 2009)
 Deuterodon giton (Eigenmann, 1908)
@@ -597,10 +613,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Deuterodon a été créé en 1907 par l'ichtyologiste américain d'origine allemande Carl H. Eigenmann (1863-1927) dans une publication coécrite avec Waldo Lee McAtee (d) (1883-1962) et David Perkins Ward (d) (fl. 1907)[1],[2].
-Deuterodon a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Deuterodon a été créé en 1907 par l'ichtyologiste américain d'origine allemande Carl H. Eigenmann (1863-1927) dans une publication coécrite avec Waldo Lee McAtee (d) (1883-1962) et David Perkins Ward (d) (fl. 1907),.
+Deuterodon a pour synonymes :
 Distoechus Gomes, 1947
 Joinvillea Steindachner, 1908</t>
         </is>
@@ -630,9 +648,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Deuterodon, dérive du grec ancien δεύτερος, deúteros, « second », et ὀδούς, odoús, « dent », fait référence à la similitude des dents de la mâchoire inférieure (c'est-à-dire la deuxième)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Deuterodon, dérive du grec ancien δεύτερος, deúteros, « second », et ὀδούς, odoús, « dent », fait référence à la similitude des dents de la mâchoire inférieure (c'est-à-dire la deuxième).
 </t>
         </is>
       </c>
@@ -661,7 +681,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Carl H. Eigenmann, Waldo Lee McAtee et David Perkins Ward, « On further collections of fishes from Paraguay », Annals of the Carnegie Museum of Natural History, Pittsburgh, Board of Trustees of the Carnegie Institute, vol. 4, no 2,‎ 1907, p. 110-157 (ISSN 0097-4463 et 1943-6300, OCLC 1261514, DOI 10.5962/P.264300, lire en ligne)</t>
         </is>
